--- a/data_config/SkillTrack.xlsx
+++ b/data_config/SkillTrack.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="22665" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Zxy</author>
+    <author>94067</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0">
@@ -63,11 +77,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 : 无
+0 : 圆形
 1 : 矩形
-2 : 圆形
-3 : 扇形
-4 : 锥形</t>
+2 : 扇形
+</t>
         </r>
       </text>
     </comment>
@@ -92,6 +105,28 @@
 0 无
 1 施法者 到 技能点 的方向
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+涉及到角度用这个字段，如扇形的角度</t>
         </r>
       </text>
     </comment>
@@ -217,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -297,7 +332,7 @@
     <t>方向类型</t>
   </si>
   <si>
-    <t>偏转角度</t>
+    <t>角度</t>
   </si>
   <si>
     <t>开始点类型</t>
@@ -327,15 +362,33 @@
     <t>进度完成时间(*1000)</t>
   </si>
   <si>
+    <t>怪物 技能2 矩形 轨迹</t>
+  </si>
+  <si>
+    <t>怪物 扇形 轨迹</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15008203</t>
+  </si>
+  <si>
     <t>测试 位移技能 轨迹</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>30000</t>
   </si>
   <si>
@@ -351,16 +404,10 @@
     <t>4000</t>
   </si>
   <si>
-    <t>怪物 技能2 矩形 轨迹</t>
-  </si>
-  <si>
     <t>8000</t>
   </si>
   <si>
     <t>大怪 1 技能 圆形 轨迹</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>15008202</t>
@@ -369,7 +416,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -382,34 +429,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,14 +445,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,6 +484,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,7 +549,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,49 +608,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,121 +746,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,21 +799,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -799,6 +831,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,152 +904,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,6 +1062,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1036,17 +1086,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1054,52 +1107,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1399,28 +1452,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="4" customWidth="1"/>
     <col min="9" max="12" width="11.375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19" style="5" customWidth="1"/>
+    <col min="13" max="13" width="19" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19" style="6" customWidth="1"/>
     <col min="15" max="15" width="11.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="5" customWidth="1"/>
     <col min="17" max="17" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1428,7 +1481,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1461,16 +1514,16 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -1514,16 +1567,16 @@
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q2" t="s">
@@ -1534,396 +1587,532 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="16" t="s">
         <v>34</v>
       </c>
       <c r="Q3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" customFormat="1" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2500005</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>2500201</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="3:16">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" customFormat="1" spans="3:16">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="3:16">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:16">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:16">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10">
+        <v>2500005</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:16">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:17">
+      <c r="B15">
+        <v>2500010</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:17">
+      <c r="B16">
+        <v>2500011</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="3:16">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" customFormat="1" spans="3:16">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:16">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:17">
+      <c r="B20">
+        <v>2500020</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4">
+      <c r="J20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:16">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:17">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>2500010</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:17">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>2500011</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="3:16">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" customFormat="1" spans="3:16">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:17">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>2500020</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="3:16">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" customFormat="1" spans="3:16">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="6:16">
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="20" customFormat="1" spans="4:16">
-      <c r="D20" s="6"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+    <row r="21" customFormat="1" spans="3:16">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" customFormat="1" spans="3:16">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="6:16">
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="28" customFormat="1" spans="4:16">
+      <c r="D28" s="7"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
